--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5761,4 +5762,6928 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>158.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>166.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.9917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.6523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.3210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.1890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.0408</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>132.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.5580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.1641</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.0844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.9562</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.9174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.8249</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.7823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.7444</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.7178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.5916</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.4965</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3.4462</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3.4171</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>141.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.3509</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3.2582</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3.2235</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3.1423</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.9051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.9036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.8833</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.8248</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>55.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.8149</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.5017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.4372</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.4362</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2.3141</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2.2562</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2.1570</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2.0718</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2.0538</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2.0320</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2.0208</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.9786</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.9555</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.9103</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.8454</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.8363</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.8203</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.6931</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.6414</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1.6127</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.5615</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.5218</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.4430</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>33.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.4312</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1.3708</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1.3365</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1.3365</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.3027</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.1638</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.1616</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1.1457</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1.1259</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1.0366</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.9918</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.9700</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.9596</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.8682</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.8356</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.8066</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.7903</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.7518</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.7412</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.7117</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.6242</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.5521</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12665,7 +12666,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>90.07</t>
@@ -12681,6 +12681,4046 @@
       </c>
       <c r="H182" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9750</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6647</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0763</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.8621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6542</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2756</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0541</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0531</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9782</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9656</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5246</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2883</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2744</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0626</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9778</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8749</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7908</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7086</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6665</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6203</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16705,7 +16706,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>79.89</t>
@@ -16721,6 +16721,106 @@
       </c>
       <c r="H106" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>181</v>
+      </c>
+      <c r="D3" t="n">
+        <v>217.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.23999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16734,7 +16735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16745,17 +16746,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16765,14 +16786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.62</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -16781,14 +16824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>181</v>
-      </c>
-      <c r="D3" t="n">
-        <v>217.31</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>132.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -16797,14 +16862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>77</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.33</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -16813,13 +16900,1481 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3657</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9645</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8596</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8106</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4448</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>217.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>60</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>69.23999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18273,7 +18274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18284,17 +18285,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18304,14 +18325,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.68</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -18320,14 +18363,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>105</v>
-      </c>
-      <c r="D3" t="n">
-        <v>98.62</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -18336,14 +18401,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>181</v>
-      </c>
-      <c r="D4" t="n">
-        <v>217.31</v>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -18352,14 +18439,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80.33</v>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -18368,13 +18477,1307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4239</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>217.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>60</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>69.23999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19660,7 +19661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19671,17 +19672,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19691,14 +19712,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.67</v>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19707,14 +19750,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.68</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6955</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -19723,14 +19788,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>105</v>
-      </c>
-      <c r="D4" t="n">
-        <v>98.62</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -19739,14 +19826,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>181</v>
-      </c>
-      <c r="D5" t="n">
-        <v>217.31</v>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -19755,14 +19864,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.33</v>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -19771,13 +19902,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>217.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>60</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>69.23999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>9.67</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>15.67</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>31.68</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>98.62</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n">
-        <v>217.31</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>80.33</v>
+        <v>217.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>77</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>60</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>69.23999999999999</v>
       </c>
     </row>
@@ -600,6 +617,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4527,7 +5626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8566,7 +9665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15489,7 +16588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18471,7 +19570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02020-安踏体育.xlsx
+++ b/数据整理/stocks/港股/02020-安踏体育.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>8.279999999999999</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>9.67</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>15.67</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>31.68</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>98.62</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>217.31</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D8" t="n">
-        <v>80.33</v>
+        <v>217.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2366 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>60</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>69.23999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>276.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>119.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4223</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3997</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8990</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9783</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8858</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>69.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8219</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7368</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1050</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0842</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9519</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7436</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6498</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159963</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2970,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4425</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013485</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>517880</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深品牌消费50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013486</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +5587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2702,7 +6591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4088,7 +7977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5626,7 +9515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9665,7 +13554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16588,7 +20477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19568,2340 +23457,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009548</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中盘价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>276.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.2336</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008286</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达研究精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>119.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.2251</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏兴阳一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.4909</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007207</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏常阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>52.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.4223</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>900003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信证券臻选价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>66.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.3997</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008985</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红启东三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>82.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.8990</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>169105</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>41.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.8884</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501093</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏翔阳两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>38.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.8652</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>169104</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>41.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.5044</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002803</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方红沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>78.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.1025</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009576</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红智远三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>67.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.0063</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009011</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏睿阳一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.9783</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501066</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方红恒元五年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>29.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.9354</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>42.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.8858</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009618</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>交银施罗德启汇混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>69.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.8219</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008314</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上投摩根慧选成长股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>60.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>85.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.7484</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001371</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国沪港深价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>74.86</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>83.12</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.7368</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005875</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达中盘成长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>27.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.5125</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005354</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>47.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.2403</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>900079</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中信证券臻选价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>21.54</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.1050</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004424</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>41.86</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1.0842</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>169102</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方红睿阳三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>24.93</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.9648</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010225</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>27.35</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.9600</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>910022</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>27.35</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.9600</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008133</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安优质生活混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>30.22</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.9519</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009549</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇添富中盘价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>34.51</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.9042</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009998</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>上投摩根慧见两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>24.38</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.7436</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>871003</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发资管价值增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>13.68</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.6498</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007455</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.6136</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010583</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.6136</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.4267</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008315</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>上投摩根慧选成长股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>13.30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>85.35</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.3830</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.3644</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.3617</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>900152</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.3320</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.2984</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>011114</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.2515</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006671</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>广发消费升级股票</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.2429</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.2178</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1273</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>519991</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长信双利优选混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006396</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>长信双利优选混合E</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0527</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>519696</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>900022</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>900052</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>011131</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>富国沪港深价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>83.12</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>159963</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>富国恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>